--- a/data/trans_camb/P25A_N_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25A_N_R2-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,69</t>
+          <t>-6,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>-6,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>13,42</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7,27</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,44; -1,45</t>
+          <t>-21,31; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 1,27</t>
+          <t>-21,31; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 10,14</t>
+          <t>-9,96; 15,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 6,67</t>
+          <t>-3,94; 17,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 3,01</t>
+          <t>-4,92; 15,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 2,58</t>
+          <t>2,0; 27,32</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-5,77; 7,42</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-8,44; 4,95</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 16,32</t>
         </is>
       </c>
     </row>
@@ -682,27 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-70,21%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>52,69%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>151,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-22,67%</t>
+          <t>117,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-31,35%</t>
+          <t>321,5%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8,69%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-13,16%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>141,67%</t>
         </is>
       </c>
     </row>
@@ -725,22 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-69,33; 450,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-80,79; 334,98</t>
+          <t>-78,66; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-81,57; 139,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-83,68; 109,08</t>
+          <t>-21,24; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-20,61; 849,08</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>16,93</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6,76</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 7,94</t>
+          <t>-13,37; 11,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 6,63</t>
+          <t>-14,47; 9,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 12,0</t>
+          <t>-14,13; 13,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 9,02</t>
+          <t>-2,85; 14,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 7,76</t>
+          <t>-3,35; 12,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 6,39</t>
+          <t>5,52; 31,58</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-5,59; 9,48</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-6,67; 7,71</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 16,14</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,94%</t>
+          <t>-16,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,77%</t>
+          <t>-27,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>133,23%</t>
+          <t>-13,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>80,17%</t>
+          <t>166,37%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>47,55%</t>
+          <t>102,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>507,36%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>28,76%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4,82%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>101,83%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-83,8; 349,83</t>
+          <t>-84,21; 355,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-86,48; 304,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-50,29; 866,38</t>
+          <t>-86,66; 398,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-70,83; 685,62</t>
+          <t>-87,23; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,17; 330,71</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,4; 252,39</t>
+          <t>17,32; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-57,29; 279,25</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-65,55; 241,68</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-23,17; 499,24</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>3,1</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 5,7</t>
+          <t>-5,28; 5,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 3,22</t>
+          <t>-7,77; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 13,11</t>
+          <t>-3,0; 10,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 11,43</t>
+          <t>-5,14; 11,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 8,21</t>
+          <t>-2,96; 14,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 6,18</t>
+          <t>-4,52; 11,19</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,33; 6,46</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-3,68; 8,01</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-3,54; 8,37</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>-0,1%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-23,49%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>66,82%</t>
+          <t>119,26%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>50,47%</t>
+          <t>31,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>53,09%</t>
+          <t>55,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>26,69%</t>
+          <t>35,44%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>25,95%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>32,71%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>37,96%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-74,78; 367,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-89,84; 272,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 216,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,06; 210,64</t>
+          <t>-47,14; 228,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 199,62</t>
+          <t>-28,33; 313,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-29,26; 157,2</t>
+          <t>-41,21; 218,68</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-51,48; 177,07</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-46,77; 211,96</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-43,0; 243,28</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>9,88</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3,51</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>7,33</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 7,89</t>
+          <t>-8,22; 9,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 8,74</t>
+          <t>-8,09; 9,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 5,26</t>
+          <t>-5,18; 15,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 12,79</t>
+          <t>-9,76; 7,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 4,6</t>
+          <t>-4,07; 15,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 9,13</t>
+          <t>-1,11; 19,85</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-6,85; 6,23</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 10,78</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-0,43; 14,66</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>24,86%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-10,56%</t>
+          <t>54,84%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>40,03%</t>
+          <t>-7,62%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,32%</t>
+          <t>48,92%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>33,65%</t>
+          <t>76,31%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-3,25%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>31,73%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>66,3%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,83; 178,43</t>
+          <t>-64,79; 256,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-47,84; 171,04</t>
+          <t>-62,53; 258,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-54,63; 52,3</t>
+          <t>-40,7; 366,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 127,15</t>
+          <t>-58,66; 96,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,59; 56,9</t>
+          <t>-31,54; 176,88</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 109,44</t>
+          <t>-8,64; 227,7</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-48,67; 89,34</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-24,39; 139,02</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-5,06; 194,79</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-5,12</t>
+          <t>-6,77</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-4,04</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,4</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,43</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 2,28</t>
+          <t>-18,21; 3,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 13,96</t>
+          <t>-8,57; 21,65</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 12,54</t>
+          <t>-10,7; 15,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 13,1</t>
+          <t>-16,63; 14,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 4,43</t>
+          <t>-15,09; 17,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 9,64</t>
+          <t>-14,32; 19,21</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-13,56; 5,16</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-7,58; 15,38</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-8,55; 12,9</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-40,21%</t>
+          <t>-45,32%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>31,69%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>-0,28%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-13,63%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>8,52%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-22,83%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>19,2%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>13,72%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-75,35; 32,7</t>
+          <t>-83,76; 47,49</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-50,32; 155,05</t>
+          <t>-50,23; 254,04</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-38,7; 93,54</t>
+          <t>-53,5; 173,07</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-39,1; 89,13</t>
+          <t>-59,37; 111,42</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-45,62; 33,38</t>
+          <t>-49,38; 134,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-28,35; 72,56</t>
+          <t>-52,95; 155,2</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-59,34; 39,76</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-34,24; 121,51</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-37,79; 100,2</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-11,43</t>
+          <t>10,52</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-7,8</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-6,05</t>
+          <t>-6,93</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>15,36</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-0,8</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-4,51</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>14,02</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 11,09</t>
+          <t>-13,84; 15,14</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 8,96</t>
+          <t>-16,6; 12,41</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-24,81; 2,19</t>
+          <t>-6,07; 27,13</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 8,28</t>
+          <t>-20,11; 17,64</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-16,04; 2,79</t>
+          <t>-25,05; 11,9</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-15,29; 5,07</t>
+          <t>-5,45; 39,22</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-12,79; 12,16</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-16,86; 6,52</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 29,4</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-11,46%</t>
+          <t>-11,65%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-39,51%</t>
+          <t>89,26%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-26,97%</t>
+          <t>-8,4%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-27,99%</t>
+          <t>-28,94%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-21,35%</t>
+          <t>64,18%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-4,32%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-24,3%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>75,57%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-60,32; 178,28</t>
+          <t>-81,02; 338,14</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-70,75; 134,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-69,38; 10,66</t>
+          <t>-43,96; 731,55</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-63,57; 36,26</t>
+          <t>-63,97; 134,62</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-58,18; 19,3</t>
+          <t>-78,04; 96,55</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-57,01; 31,59</t>
+          <t>-22,85; 282,13</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-52,25; 96,36</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-70,27; 57,41</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-14,26; 221,36</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>10,96</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>6,9</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 1,49</t>
+          <t>-6,42; 1,72</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 2,32</t>
+          <t>-6,18; 2,76</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 3,98</t>
+          <t>-1,99; 7,57</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 5,55</t>
+          <t>-3,23; 6,55</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 2,1</t>
+          <t>-1,97; 7,95</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 2,71</t>
+          <t>5,15; 18,68</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-3,53; 3,06</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 4,14</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>2,81; 11,07</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-16,1%</t>
+          <t>-24,9%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-9,07%</t>
+          <t>-15,49%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>30,98%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>15,8%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-4,35%</t>
+          <t>25,48%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>94,27%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-1,22%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>7,44%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>66,7%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-45,12; 24,32</t>
+          <t>-58,62; 27,05</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-41,95; 36,8</t>
+          <t>-54,19; 42,76</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-22,15; 36,26</t>
+          <t>-19,6; 109,74</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 51,81</t>
+          <t>-23,37; 72,39</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-25,15; 23,07</t>
+          <t>-15,66; 80,54</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 29,92</t>
+          <t>32,74; 193,84</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-29,72; 34,62</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-24,86; 47,07</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>24,22; 124,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
